--- a/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>181542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160086</v>
+        <v>158798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206644</v>
+        <v>204754</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3154808660721608</v>
+        <v>0.3154808660721607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2781945129589914</v>
+        <v>0.2759565307640884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3591028903671649</v>
+        <v>0.3558187829301038</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>309</v>
@@ -762,19 +762,19 @@
         <v>191914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>174246</v>
+        <v>170951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212912</v>
+        <v>211724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2354412727242696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2137670468204435</v>
+        <v>0.2097236495307639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2612024071242262</v>
+        <v>0.2597447240871391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>515</v>
@@ -783,19 +783,19 @@
         <v>373455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>343518</v>
+        <v>347085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>401672</v>
+        <v>405871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2685632709690232</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2470344186545908</v>
+        <v>0.2495997129704651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2888546829212479</v>
+        <v>0.2918743536239017</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>278080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254895</v>
+        <v>254463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301643</v>
+        <v>300880</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4832431201267154</v>
+        <v>0.4832431201267153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4429534914890093</v>
+        <v>0.4422020741226702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5241912703088552</v>
+        <v>0.5228645334672236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -833,19 +833,19 @@
         <v>360523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336151</v>
+        <v>340094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>380858</v>
+        <v>383410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4422925864490893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4123924127070174</v>
+        <v>0.417230089987512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4672399717006619</v>
+        <v>0.4703710457401401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>987</v>
@@ -854,19 +854,19 @@
         <v>638602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>604136</v>
+        <v>608531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>668365</v>
+        <v>671879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4592387433179358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4344527353347094</v>
+        <v>0.4376134827402683</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4806418467910699</v>
+        <v>0.4831691933366336</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>97422</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81191</v>
+        <v>80268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115318</v>
+        <v>114115</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1692993314278303</v>
+        <v>0.1692993314278302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1410927575368436</v>
+        <v>0.1394889392579649</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2003982024232221</v>
+        <v>0.1983077506205064</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>393</v>
@@ -904,19 +904,19 @@
         <v>226699</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>206755</v>
+        <v>206587</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>246401</v>
+        <v>245821</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2781158260787153</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.253649111615067</v>
+        <v>0.2534429698027275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3022870982543745</v>
+        <v>0.3015756050403218</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>516</v>
@@ -925,19 +925,19 @@
         <v>324121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>299760</v>
+        <v>299697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>353251</v>
+        <v>350382</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2330853656019714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2155664447288189</v>
+        <v>0.2155216848412455</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2540339802513562</v>
+        <v>0.2519705260571925</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>18401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11648</v>
+        <v>11512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28443</v>
+        <v>28656</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0319766823732936</v>
+        <v>0.03197668237329358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02024126323610975</v>
+        <v>0.02000461451772027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04942756381455824</v>
+        <v>0.04979872086489094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -975,19 +975,19 @@
         <v>35988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27737</v>
+        <v>27355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46114</v>
+        <v>45416</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04415031474792592</v>
+        <v>0.04415031474792591</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03402776763685503</v>
+        <v>0.03355884579836035</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05657258649046517</v>
+        <v>0.05571654955110899</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -996,19 +996,19 @@
         <v>54389</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42227</v>
+        <v>43210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68421</v>
+        <v>66859</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0391126201110694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03036673885262748</v>
+        <v>0.03107385891979439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04920342756767326</v>
+        <v>0.04808067308240151</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>985041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>930343</v>
+        <v>928863</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1038493</v>
+        <v>1039340</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.442947407998496</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4183512299750367</v>
+        <v>0.4176854001172998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4669831387922239</v>
+        <v>0.4673641120905615</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>888</v>
@@ -1121,19 +1121,19 @@
         <v>747068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>707107</v>
+        <v>706806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>791304</v>
+        <v>790239</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3447966964775515</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3263533101961682</v>
+        <v>0.3262145127861791</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3652131525669469</v>
+        <v>0.36472174308074</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1682</v>
@@ -1142,19 +1142,19 @@
         <v>1732109</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1661461</v>
+        <v>1664485</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1803155</v>
+        <v>1807471</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3945107578135255</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3784196581967167</v>
+        <v>0.379108511895071</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4106924811761115</v>
+        <v>0.4116754988901554</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>917806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>861702</v>
+        <v>868279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>968692</v>
+        <v>968651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4127133444108438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3874849242883375</v>
+        <v>0.3904423435302488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4355957055007825</v>
+        <v>0.4355772914458932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1306</v>
@@ -1192,19 +1192,19 @@
         <v>936091</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>890605</v>
+        <v>894417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>977232</v>
+        <v>978300</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4320372016634712</v>
+        <v>0.4320372016634711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4110438385019497</v>
+        <v>0.412803356784711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.451024897212459</v>
+        <v>0.4515181326396815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2174</v>
@@ -1213,19 +1213,19 @@
         <v>1853897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1785492</v>
+        <v>1787859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1929999</v>
+        <v>1918576</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4222495250402637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4066694115842955</v>
+        <v>0.4072086715874487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4395829059818773</v>
+        <v>0.4369811333656073</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>280851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249138</v>
+        <v>248672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315932</v>
+        <v>316738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1262913979911753</v>
+        <v>0.1262913979911754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1120309099707077</v>
+        <v>0.111821179752577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.14206636105225</v>
+        <v>0.1424290313557034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>624</v>
@@ -1263,19 +1263,19 @@
         <v>412319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>380696</v>
+        <v>379226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449968</v>
+        <v>442865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1902990614381776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1757036616574528</v>
+        <v>0.1750255048897929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2076750942529318</v>
+        <v>0.2043968302712892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>910</v>
@@ -1284,19 +1284,19 @@
         <v>693170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644149</v>
+        <v>646885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>741200</v>
+        <v>742673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1578787064833627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1467133566946113</v>
+        <v>0.1473366030745855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1688181884921084</v>
+        <v>0.1691536633615092</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>40135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28001</v>
+        <v>29271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55327</v>
+        <v>54913</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01804784959948486</v>
+        <v>0.01804784959948487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01259127850247243</v>
+        <v>0.0131622503800681</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02487893028732783</v>
+        <v>0.02469290579479656</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -1334,19 +1334,19 @@
         <v>71213</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58151</v>
+        <v>56279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86627</v>
+        <v>86196</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03286704042079971</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02683849742583507</v>
+        <v>0.02597441027279386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03998128024879138</v>
+        <v>0.03978218918980272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -1355,19 +1355,19 @@
         <v>111348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94381</v>
+        <v>94426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>132133</v>
+        <v>132164</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02536101066284794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02149646397417433</v>
+        <v>0.02150685291128445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03009500881749495</v>
+        <v>0.03010216013365013</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>314128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286351</v>
+        <v>285950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344575</v>
+        <v>343687</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.441446842913266</v>
+        <v>0.4414468429132658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4024114734757142</v>
+        <v>0.4018481543048779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4842343573119766</v>
+        <v>0.4829870925735543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1480,19 +1480,19 @@
         <v>257952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232570</v>
+        <v>235429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281078</v>
+        <v>282183</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.351014289486213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3164741058149671</v>
+        <v>0.320365618600774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3824826577883624</v>
+        <v>0.383986131513064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>608</v>
@@ -1501,19 +1501,19 @@
         <v>572080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>531978</v>
+        <v>535270</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609496</v>
+        <v>609560</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3955025161738833</v>
+        <v>0.3955025161738832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3677785044255851</v>
+        <v>0.3700542779081127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4213699638545914</v>
+        <v>0.4214137663059462</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>282574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>254753</v>
+        <v>256853</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>311581</v>
+        <v>315413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3971037330162606</v>
+        <v>0.3971037330162605</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3580066411553141</v>
+        <v>0.3609585429222292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4378677694592603</v>
+        <v>0.4432528681348309</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>454</v>
@@ -1551,19 +1551,19 @@
         <v>316720</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>291231</v>
+        <v>290830</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>341405</v>
+        <v>340531</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4309837488316635</v>
+        <v>0.4309837488316636</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.396299239719932</v>
+        <v>0.3957537656980828</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4645740229067221</v>
+        <v>0.4633844735846031</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>739</v>
@@ -1572,19 +1572,19 @@
         <v>599294</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>559726</v>
+        <v>560728</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>639623</v>
+        <v>635744</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4143165005161185</v>
+        <v>0.4143165005161183</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3869619233799851</v>
+        <v>0.3876542556084602</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4421977430634245</v>
+        <v>0.4395162452852679</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>95870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77331</v>
+        <v>77509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116105</v>
+        <v>114351</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1347275382220532</v>
+        <v>0.1347275382220531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1086733948804464</v>
+        <v>0.1089241776378061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1631635614869323</v>
+        <v>0.1606991653881576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -1622,19 +1622,19 @@
         <v>140015</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123170</v>
+        <v>122762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161657</v>
+        <v>160597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1905282719251766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1676057942446086</v>
+        <v>0.1670516918559277</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2199784221290389</v>
+        <v>0.2185365236171112</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>298</v>
@@ -1643,19 +1643,19 @@
         <v>235885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212020</v>
+        <v>210389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266281</v>
+        <v>263900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1630771429207817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.146578157713307</v>
+        <v>0.1454507669639678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1840908220499002</v>
+        <v>0.1824447818601492</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>19015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10799</v>
+        <v>9706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33835</v>
+        <v>33610</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02672188584842041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0151753222739159</v>
+        <v>0.01363946915569614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04754932283189836</v>
+        <v>0.04723285507250267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1693,19 +1693,19 @@
         <v>20190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13556</v>
+        <v>13320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29240</v>
+        <v>29031</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02747368975694668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01844614092765612</v>
+        <v>0.01812499242841296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03978953421967373</v>
+        <v>0.03950414219650083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1714,19 +1714,19 @@
         <v>39205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27484</v>
+        <v>27490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55105</v>
+        <v>54260</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02710384038921682</v>
+        <v>0.02710384038921681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01900115297137293</v>
+        <v>0.01900465338603671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03809614021300865</v>
+        <v>0.03751247264699995</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1480711</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1414902</v>
+        <v>1407756</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1547560</v>
+        <v>1542916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4217509953482222</v>
+        <v>0.4217509953482223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4030065334312504</v>
+        <v>0.4009712440881071</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.440791727336828</v>
+        <v>0.4394688514846611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1525</v>
@@ -1839,19 +1839,19 @@
         <v>1196934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1145997</v>
+        <v>1144911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1248923</v>
+        <v>1251541</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3220428822340312</v>
+        <v>0.3220428822340311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3083378789075528</v>
+        <v>0.3080458130715748</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3360309930177768</v>
+        <v>0.3367353214516001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2805</v>
@@ -1860,19 +1860,19 @@
         <v>2677645</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2595390</v>
+        <v>2594818</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2760457</v>
+        <v>2766797</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3704771960063717</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3590965577276984</v>
+        <v>0.3590172908451185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3819350425578044</v>
+        <v>0.3828122458226382</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>1478459</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1417189</v>
+        <v>1413439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1540558</v>
+        <v>1541517</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4211096787240672</v>
+        <v>0.4211096787240673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4036581274889589</v>
+        <v>0.4025899885657047</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4387972089550174</v>
+        <v>0.439070526387789</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2410</v>
@@ -1910,19 +1910,19 @@
         <v>1613334</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1556722</v>
+        <v>1560441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1662734</v>
+        <v>1673263</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4340780590162492</v>
+        <v>0.4340780590162491</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4188461586089254</v>
+        <v>0.4198469390786833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4473694341288211</v>
+        <v>0.4502023242760155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3900</v>
@@ -1931,19 +1931,19 @@
         <v>3091793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3006255</v>
+        <v>3007549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3177116</v>
+        <v>3176462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4277785255021486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4159434767183405</v>
+        <v>0.4161225738084123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4395837052905702</v>
+        <v>0.4394933085858377</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>474144</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>435732</v>
+        <v>433355</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>522291</v>
+        <v>515938</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.135050419058204</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.124109651361821</v>
+        <v>0.1234325315308676</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1487642261514087</v>
+        <v>0.1469547273485484</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1212</v>
@@ -1981,19 +1981,19 @@
         <v>779033</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>739191</v>
+        <v>735768</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>823396</v>
+        <v>820176</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2096038303044682</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1988842144886268</v>
+        <v>0.197963135469589</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2215399580394387</v>
+        <v>0.2206738224358462</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1724</v>
@@ -2002,19 +2002,19 @@
         <v>1253176</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1193666</v>
+        <v>1196144</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1319586</v>
+        <v>1314692</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.173388689928033</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1651548844872248</v>
+        <v>0.1654976497508881</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1825770949697375</v>
+        <v>0.1818999747517427</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>77551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61185</v>
+        <v>59115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100924</v>
+        <v>98371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02208890686950658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0174273004205679</v>
+        <v>0.01683767542328549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02874608711186894</v>
+        <v>0.02801899608783067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2052,19 +2052,19 @@
         <v>127390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110806</v>
+        <v>108401</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147446</v>
+        <v>146376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0342752284452515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02981299632916873</v>
+        <v>0.02916597502184739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03967133768996564</v>
+        <v>0.03938334172107392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2073,19 +2073,19 @@
         <v>204942</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>179683</v>
+        <v>180754</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>233195</v>
+        <v>234692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02835558856344666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02486076215934186</v>
+        <v>0.02500905007961101</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03226473361366806</v>
+        <v>0.03247187519832739</v>
       </c>
     </row>
     <row r="23">
